--- a/biology/Botanique/Gisement_d'ambre/Gisement_d'ambre.xlsx
+++ b/biology/Botanique/Gisement_d'ambre/Gisement_d'ambre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gisements d'ambre, dont les plus anciens datent de 310 millions d'années, se forment à la suite d'une accumulation de résine exsudée par des plantes puis fossilisée en ambre. Ils sont répartis sur tous les continents. Ceux qui renferment des inclusions d'animaux et de végétaux intéressent particulièrement les paléontologues. Certains gisements sont exploités à des fins commerciales.
 Le terme « ambre » est entendu au sens large ; l'opinion présente dans certaines études spécialisées selon laquelle l'ambre au sens étroit désigne uniquement la succinite (ou ambre balte) n'est pas prise en compte dans cet article.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Formation des gisements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La résine s’écoule le long des arbres blessés - aussi bien des gymnospermes que des angiospermes[1] -, son durcissement les protégeant des fungis et des insectes. La fossilisation de la résine s’étend sur des millions d’années, elle suppose une accumulation de la résine en contexte sédimentaire, et des conditions pauvres en oxygène ; elle fait intervenir des processus de polymérisation et d'évaporation d'huiles volatiles (terpènes)[2]. 
-Les résines fossiles sont souvent associées à des gisements de charbon du type des lignites[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La résine s’écoule le long des arbres blessés - aussi bien des gymnospermes que des angiospermes -, son durcissement les protégeant des fungis et des insectes. La fossilisation de la résine s’étend sur des millions d’années, elle suppose une accumulation de la résine en contexte sédimentaire, et des conditions pauvres en oxygène ; elle fait intervenir des processus de polymérisation et d'évaporation d'huiles volatiles (terpènes). 
+Les résines fossiles sont souvent associées à des gisements de charbon du type des lignites.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Gisements primaires et secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un gisement primaire est un dépôt d'ambre situé sur l'emplacement même des forêts productrices de la résine fossilisée. Cependant, l’ambre peut être découvert loin de son lieu d’origine[2]. Du fait de l'action des fleuves, des tempêtes, cet ambre a été arraché de son dépôt d'origine et redistribué dans des gisements dits « secondaires » ou en position secondaire[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un gisement primaire est un dépôt d'ambre situé sur l'emplacement même des forêts productrices de la résine fossilisée. Cependant, l’ambre peut être découvert loin de son lieu d’origine. Du fait de l'action des fleuves, des tempêtes, cet ambre a été arraché de son dépôt d'origine et redistribué dans des gisements dits « secondaires » ou en position secondaire. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Âges et localisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gisements d’ambre les plus anciens datent de 310 millions d'années, soit de la fin du carbonifère, les plus récents d'il y a 40 000 ans, soit de la fin du Pléistocène[1]. L'âge ne peut pas être déterminé à partir de l'ambre lui-même avec précision ; la datation se fonde sur l'étude des sédiments encaissants (leur analyse palynologique) ; lorsque l'ambre a subi un transport à la suite de crues ou de tempêtes avant de parvenir jusqu'au gisement définitif, son âge est alors différent des sédiments qui l'entourent, les inclusions d'insectes peuvent dans ce cas servir à dater l'ambre[4]. 
-Des dépôts d'ambre se trouvent dans le monde entier mais les gisements les plus importants et les plus connus sont ceux d’Europe du Nord et plus particulièrement ceux des pays riverains de la mer Baltique et de la mer du Nord. Ces ambres, appelés « ambres baltes », ont pour origine de vastes forêts de conifères qui recouvraient ces régions et qui furent ensuite submergées. À la suite de glaciations et de la formation de rivières post-glaciaires, les ambres furent dispersés dans toute l’Europe du Nord[5]. Les ambres baltes datent de l’Éocène supérieur[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gisements d’ambre les plus anciens datent de 310 millions d'années, soit de la fin du carbonifère, les plus récents d'il y a 40 000 ans, soit de la fin du Pléistocène. L'âge ne peut pas être déterminé à partir de l'ambre lui-même avec précision ; la datation se fonde sur l'étude des sédiments encaissants (leur analyse palynologique) ; lorsque l'ambre a subi un transport à la suite de crues ou de tempêtes avant de parvenir jusqu'au gisement définitif, son âge est alors différent des sédiments qui l'entourent, les inclusions d'insectes peuvent dans ce cas servir à dater l'ambre. 
+Des dépôts d'ambre se trouvent dans le monde entier mais les gisements les plus importants et les plus connus sont ceux d’Europe du Nord et plus particulièrement ceux des pays riverains de la mer Baltique et de la mer du Nord. Ces ambres, appelés « ambres baltes », ont pour origine de vastes forêts de conifères qui recouvraient ces régions et qui furent ensuite submergées. À la suite de glaciations et de la formation de rivières post-glaciaires, les ambres furent dispersés dans toute l’Europe du Nord. Les ambres baltes datent de l’Éocène supérieur.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Ambres fossilifères</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ambre est un mode de conservation unique d'organismes piégés dans la résine, appartenant à des espèces très anciennes de la faune et de la flore. L'étude des inclusions biologiques, du plus haut intérêt en paléontologie, permet de décrire des écosystèmes disparus. Cependant, tous les ambres ne sont pas fossilifères. Sept gisements présentent un nombre important d'inclusions biologiques (en 2003) : pour le Crétacé inférieur, ceux du Liban, de l'Espagne et de la Birmanie (Myanmar) ; pour le Crétacé supérieur, ceux du Canada, de la Sibérie (Taimyr et formation Dolgan) et des États-Unis (New Jersey). L'hémisphère Nord est surreprésenté, probablement parce que la recherche de gisements dans l'hémisphère Sud y est moins active[6]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ambre est un mode de conservation unique d'organismes piégés dans la résine, appartenant à des espèces très anciennes de la faune et de la flore. L'étude des inclusions biologiques, du plus haut intérêt en paléontologie, permet de décrire des écosystèmes disparus. Cependant, tous les ambres ne sont pas fossilifères. Sept gisements présentent un nombre important d'inclusions biologiques (en 2003) : pour le Crétacé inférieur, ceux du Liban, de l'Espagne et de la Birmanie (Myanmar) ; pour le Crétacé supérieur, ceux du Canada, de la Sibérie (Taimyr et formation Dolgan) et des États-Unis (New Jersey). L'hémisphère Nord est surreprésenté, probablement parce que la recherche de gisements dans l'hémisphère Sud y est moins active. 
 </t>
         </is>
       </c>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Ambres exploités commercialement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ambre étant considéré comme un pierre précieuse, il est utilisé dans la bijouterie et l'artisanat, secteurs qui absorbent 20% de la production d'ambre. Les morceaux de qualité inférieure sont récupérés par l'industrie chimique pour la fabrication de vernis (en lutherie notamment), et de colophane[7]. La plus grande mine au monde faisant l'objet d'une exploitation commerciale est celle de Iantarny en Borussie (ancienne province de Prusse-Orientale) : à lui seul ce gisement terrestre éocène représente 80% des ressources mondiales d'ambre[8]. Un autre gisement, miocène, est commercialement exploité : l'ambre dominicain[9] mais il existe aussi des gisements d'ambre crétacé exploités au Liban[10] et en Indochine[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ambre étant considéré comme un pierre précieuse, il est utilisé dans la bijouterie et l'artisanat, secteurs qui absorbent 20% de la production d'ambre. Les morceaux de qualité inférieure sont récupérés par l'industrie chimique pour la fabrication de vernis (en lutherie notamment), et de colophane. La plus grande mine au monde faisant l'objet d'une exploitation commerciale est celle de Iantarny en Borussie (ancienne province de Prusse-Orientale) : à lui seul ce gisement terrestre éocène représente 80% des ressources mondiales d'ambre. Un autre gisement, miocène, est commercialement exploité : l'ambre dominicain mais il existe aussi des gisements d'ambre crétacé exploités au Liban et en Indochine.
 </t>
         </is>
       </c>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,14 +691,11 @@
           <t>Modes d'extraction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les gisements, les morceaux d’ambre sont extraits à ciel ouvert, ou sous terre ; ou récoltés sur le littoral, à la main, par dragage ou en plongée[2] .
-Gisements terrestres
-Dans la mine d'Iantarny de Kaliningrad, la couche supérieure du sol est arrachée ; à 50 mètres de profondeur apparaît une argile bleuâtre qui est alors extraite et précipitée vers d'énormes tamis par un puissant jet d'eau ; les morceaux d'ambre se révèlent au terme de ce processus[8]. 
-Les médias alertent sur les effets néfastes de l'extraction illégale d'ambre notamment en Ukraine, qui provoque la déforestation de milliers d'hectares et une catastrophe écologique[12] (2017-2019).
-Gisements sous-marins
-A Gdansk en Pologne, où les gisements sont sous-marins, l'ambre est traditionnellement recueilli sur les plages, entre les galets : en effet, après les tempêtes, des morceaux d'ambre sont arrachés aux couches sous-marines et rejetés sur les côtes par les vagues[13] (l'ambre flottant sur l'eau salée, du fait de sa faible densité). Le dragage au large des couches sous-marines est une technique moderne d'extraction.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les gisements, les morceaux d’ambre sont extraits à ciel ouvert, ou sous terre ; ou récoltés sur le littoral, à la main, par dragage ou en plongée .
 </t>
         </is>
       </c>
@@ -687,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gisement_d%27ambre</t>
+          <t>Gisement_d'ambre</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,10 +721,87 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Modes d'extraction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gisements terrestres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mine d'Iantarny de Kaliningrad, la couche supérieure du sol est arrachée ; à 50 mètres de profondeur apparaît une argile bleuâtre qui est alors extraite et précipitée vers d'énormes tamis par un puissant jet d'eau ; les morceaux d'ambre se révèlent au terme de ce processus. 
+Les médias alertent sur les effets néfastes de l'extraction illégale d'ambre notamment en Ukraine, qui provoque la déforestation de milliers d'hectares et une catastrophe écologique (2017-2019).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gisement_d'ambre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gisement_d%27ambre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Modes d'extraction</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gisements sous-marins</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Gdansk en Pologne, où les gisements sont sous-marins, l'ambre est traditionnellement recueilli sur les plages, entre les galets : en effet, après les tempêtes, des morceaux d'ambre sont arrachés aux couches sous-marines et rejetés sur les côtes par les vagues (l'ambre flottant sur l'eau salée, du fait de sa faible densité). Le dragage au large des couches sous-marines est une technique moderne d'extraction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gisement_d'ambre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gisement_d%27ambre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Gisements identifiés dans le monde</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre de sites d'ambre répertoriés est en constante augmentation. 
 (*) Sources essentiellement: Poinar 1992, Krumbiegel 1994, Reineking von Bock 1981. En plus des espèces et des dépôts d'ambre énumérés, d'autres gisements existent, pour la plupart quantitativement insignifiants  (en Grèce, Bulgarie, Angleterre, Croatie, Groenland, Brésil, Chili, Madagascar, Inde). 
